--- a/CashFlow/EQIX_cashflow.xlsx
+++ b/CashFlow/EQIX_cashflow.xlsx
@@ -377,7 +377,7 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1498037000.0</v>
+        <v>1498736000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1439108000.0</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>492226000.0</v>
+        <v>491527000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>468473000.0</v>
